--- a/docs/Extension-CareConnect-DeathNotificationStatus-1.xlsx
+++ b/docs/Extension-CareConnect-DeathNotificationStatus-1.xlsx
@@ -291,7 +291,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-DeathNotificationStatus-1</t>
+    <t>https://hl7.org.uk/fhir/ValueSet/CareConnect-DeathNotificationStatus-1</t>
   </si>
   <si>
     <t>Extension.extension.value[x].id</t>
@@ -349,7 +349,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>https://fhir.hl7.org.uk/STU3/CodeSystem/CareConnect-DeathNotificationStatus-1</t>
+    <t>https://hl7.org.uk/fhir/CodeSystem/CareConnect-DeathNotificationStatus-1</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -481,7 +481,7 @@
     <t>System effective date</t>
   </si>
   <si>
-    <t>https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-DeathNotificationStatus-1</t>
+    <t>https://hl7.org.uk/fhir/StructureDefinition/Extension-CareConnect-DeathNotificationStatus-1</t>
   </si>
 </sst>
 </file>
@@ -663,7 +663,7 @@
     <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="76.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="71.13671875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="65.97265625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
